--- a/results/table.xlsx
+++ b/results/table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1133824\Documents\GitHub\SAI\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB7C55-C30B-4331-8DFF-20340AF06BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC494EB8-6E8D-4041-B507-49D0A89D8FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="new" sheetId="2" r:id="rId1"/>
-    <sheet name="country" sheetId="3" r:id="rId2"/>
-    <sheet name="affiliation" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="old_sai_fct_match" sheetId="1" r:id="rId1"/>
+    <sheet name="new_fct_match" sheetId="2" r:id="rId2"/>
+    <sheet name="country" sheetId="3" r:id="rId3"/>
+    <sheet name="affiliation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Country</t>
   </si>
@@ -145,15 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,294 +432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056FB1B-382D-4D23-A134-5044F47091AA}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <f>13390/28083</f>
-        <v>0.47680091158352028</v>
-      </c>
-      <c r="C2" s="2">
-        <f>14497/28083</f>
-        <v>0.5162197770893423</v>
-      </c>
-      <c r="D2" s="2">
-        <f>11199/28083</f>
-        <v>0.39878218139087707</v>
-      </c>
-      <c r="E2" s="2">
-        <f>2634/28083</f>
-        <v>9.3793398141224227E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <f>28052/28083</f>
-        <v>0.99889612933091199</v>
-      </c>
-      <c r="G2" s="2">
-        <f>28048/28083</f>
-        <v>0.99875369440586836</v>
-      </c>
-      <c r="H2" s="2">
-        <f>12840/28083</f>
-        <v>0.45721610939002244</v>
-      </c>
-      <c r="I2" s="2">
-        <f>27893/28083</f>
-        <v>0.99323434106042807</v>
-      </c>
-      <c r="J2" s="2">
-        <f>3741/28083</f>
-        <v>0.13321226364704625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <f>47/221</f>
-        <v>0.21266968325791855</v>
-      </c>
-      <c r="C3" s="2">
-        <f>83/221</f>
-        <v>0.3755656108597285</v>
-      </c>
-      <c r="D3" s="2">
-        <f>9/221</f>
-        <v>4.072398190045249E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <f>3/221</f>
-        <v>1.3574660633484163E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <f>197/221</f>
-        <v>0.89140271493212675</v>
-      </c>
-      <c r="G3" s="2">
-        <f>199/221</f>
-        <v>0.90045248868778283</v>
-      </c>
-      <c r="H3" s="2">
-        <f>154/221</f>
-        <v>0.69683257918552033</v>
-      </c>
-      <c r="I3" s="2">
-        <f>159/221</f>
-        <v>0.71945701357466063</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82417DB2-3A06-4E44-9CDB-38BA4388D06E}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2">
-        <f>11199/28083</f>
-        <v>0.39878218139087707</v>
-      </c>
-      <c r="C2" s="2">
-        <f>12840/28083</f>
-        <v>0.45721610939002244</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
-        <f>3741/28083</f>
-        <v>0.13321226364704625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <f>28052/28083</f>
-        <v>0.99889612933091199</v>
-      </c>
-      <c r="C3" s="2">
-        <f>27893/28083</f>
-        <v>0.99323434106042807</v>
-      </c>
-      <c r="D3" s="2">
-        <f>28048/28083</f>
-        <v>0.99875369440586836</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6814615A-84EA-4A4F-8E8F-0DBFC5A34599}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2">
-        <f>9/221</f>
-        <v>4.072398190045249E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <f>154/221</f>
-        <v>0.69683257918552033</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
-        <f>5/221</f>
-        <v>2.2624434389140271E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <f>197/221</f>
-        <v>0.89140271493212675</v>
-      </c>
-      <c r="C3" s="2">
-        <f>159/221</f>
-        <v>0.71945701357466063</v>
-      </c>
-      <c r="D3" s="2">
-        <f>199/221</f>
-        <v>0.90045248868778283</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +488,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>13390/28083</f>
         <v>0.47680091158352028</v>
       </c>
@@ -815,7 +529,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2">
         <f>81/221</f>
         <v>0.36651583710407237</v>
@@ -853,7 +569,7 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>47/221</f>
         <v>0.21266968325791855</v>
       </c>
@@ -884,10 +600,253 @@
       <c r="I4" s="2">
         <f>159/221</f>
         <v>0.71945701357466063</v>
+      </c>
+      <c r="J4" s="2">
+        <f>5/221</f>
+        <v>2.2624434389140271E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056FB1B-382D-4D23-A134-5044F47091AA}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <f>13390/28083</f>
+        <v>0.47680091158352028</v>
+      </c>
+      <c r="C2" s="2">
+        <f>14497/28083</f>
+        <v>0.5162197770893423</v>
+      </c>
+      <c r="F2" s="2">
+        <f>27972/28083</f>
+        <v>0.99604743083003955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <f>47/221</f>
+        <v>0.21266968325791855</v>
+      </c>
+      <c r="C3" s="2">
+        <f>83/221</f>
+        <v>0.3755656108597285</v>
+      </c>
+      <c r="F3" s="2">
+        <f>194/221</f>
+        <v>0.87782805429864252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82417DB2-3A06-4E44-9CDB-38BA4388D06E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <f>11199/28083</f>
+        <v>0.39878218139087707</v>
+      </c>
+      <c r="C2" s="2">
+        <f>12840/28083</f>
+        <v>0.45721610939002244</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <f>3741/28083</f>
+        <v>0.13321226364704625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <f>28052/28083</f>
+        <v>0.99889612933091199</v>
+      </c>
+      <c r="C3" s="2">
+        <f>27893/28083</f>
+        <v>0.99323434106042807</v>
+      </c>
+      <c r="D3" s="2">
+        <f>28048/28083</f>
+        <v>0.99875369440586836</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6814615A-84EA-4A4F-8E8F-0DBFC5A34599}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <f>9/221</f>
+        <v>4.072398190045249E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <f>154/221</f>
+        <v>0.69683257918552033</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <f>5/221</f>
+        <v>2.2624434389140271E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <f>197/221</f>
+        <v>0.89140271493212675</v>
+      </c>
+      <c r="C3" s="2">
+        <f>159/221</f>
+        <v>0.71945701357466063</v>
+      </c>
+      <c r="D3" s="2">
+        <f>199/221</f>
+        <v>0.90045248868778283</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>